--- a/graficos/exercicio3.xlsx
+++ b/graficos/exercicio3.xlsx
@@ -370,56 +370,70 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="B2">
         <v>17</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="B4">
         <v>28</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="B5">
         <v>19</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B6">
         <v>7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Mais de 5</t>
+        </is>
       </c>
       <c r="B8">
         <v>5</v>
